--- a/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45411</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -540,65 +540,305 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45432</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45446</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45481</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45488</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45516</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45523</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45530</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45551</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -613,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,65 +875,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>6</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,127 +476,127 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -604,95 +604,95 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>9</v>
@@ -700,31 +700,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -732,79 +732,79 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>10</v>
@@ -812,33 +812,17 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45536.99999999999</v>
-      </c>
-      <c r="B49" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45557.99999999999</v>
-      </c>
-      <c r="B50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -894,7 +878,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -853,7 +854,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -991,6 +992,817 @@
       </c>
       <c r="B18" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.357879645996588</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.06537704020664</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.720249323536112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.91515733300269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.920047303239733</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.55482311051806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.049259802325854</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.96433572227706</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.085302627984843</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.43714179096801</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.903894844940293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.59654555455128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.357883741906274</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.27294841088441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.976874213567342</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.39598217124352</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.559257405099649</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.89801792808694</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.036530256754497</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.64005545956788</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.692911233657004</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.10293143117822</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.194415785419802</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.85798881373678</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.624498885689487</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.7796741177579</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.098316537279386</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16.86110052914108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.763317489476607</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17.07684897020914</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.221282488303101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.71167305199617</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.539353609679557</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.32813633151301</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.159357182859559</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.72027678363642</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.28669060972812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.38404132718021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.293798670683504</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17.75421391290822</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.686662643139896</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.95091029292302</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.039875607320992</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.76918605479878</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.898621463837814</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17.27429363571776</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.863358174360682</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.37140617087447</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.576727308458959</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18.71645875668842</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.084883087493013</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.54026266726752</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.651405981996901</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18.52007159197403</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.090120890804041</v>
+      </c>
+      <c r="D29" t="n">
+        <v>18.66697548335438</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.979179598225042</v>
+      </c>
+      <c r="D30" t="n">
+        <v>19.14822372394305</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.247660177817743</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19.757595733338</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.580503238458067</v>
+      </c>
+      <c r="D32" t="n">
+        <v>19.15023753235316</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.9992963415726708</v>
+      </c>
+      <c r="D33" t="n">
+        <v>19.08106858459541</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.01719345886534</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19.27404908634615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.309435958693907</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18.94090703440994</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.9458117349364114</v>
+      </c>
+      <c r="D36" t="n">
+        <v>19.47700476150857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.9648584013440996</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19.33864929338958</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.6321605870865095</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.45183958481082</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.3297609678833329</v>
+      </c>
+      <c r="D39" t="n">
+        <v>19.77650273126551</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5491557088511065</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21.07255583025981</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.003632676435414118</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20.29823567740717</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5835524577639108</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20.55907180943974</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.46739764186216</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.81738649959892</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.170128947927731</v>
+      </c>
+      <c r="D44" t="n">
+        <v>21.54773443504615</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.076250096111836</v>
+      </c>
+      <c r="D45" t="n">
+        <v>21.95051653893422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.288531452773089</v>
+      </c>
+      <c r="D46" t="n">
+        <v>22.07379058670045</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.666091203594009</v>
+      </c>
+      <c r="D47" t="n">
+        <v>22.04745766614628</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.4503699522222</v>
+      </c>
+      <c r="D48" t="n">
+        <v>22.18253122312818</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.168346953462976</v>
+      </c>
+      <c r="D49" t="n">
+        <v>22.2524599308795</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.674749018113665</v>
+      </c>
+      <c r="D50" t="n">
+        <v>22.38788321506934</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.158200682736066</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22.07938721493936</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.4919754457492</v>
+      </c>
+      <c r="D52" t="n">
+        <v>22.32218290896741</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.452730950274982</v>
+      </c>
+      <c r="D53" t="n">
+        <v>22.99851638113197</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>13</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.089262072741606</v>
+      </c>
+      <c r="D54" t="n">
+        <v>23.26851104951523</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.781016295389608</v>
+      </c>
+      <c r="D55" t="n">
+        <v>22.46099540864799</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.906844411850551</v>
+      </c>
+      <c r="D56" t="n">
+        <v>23.09464891554568</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRLCN99_po_data.xlsx
@@ -1005,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,16 +1024,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1042,12 +1032,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-6.357879645996588</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.06537704020664</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1056,12 +1040,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-5.720249323536112</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.91515733300269</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1070,12 +1048,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.920047303239733</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.55482311051806</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1084,12 +1056,6 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>-5.049259802325854</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.96433572227706</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1098,12 +1064,6 @@
       <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>-4.085302627984843</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.43714179096801</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1112,12 +1072,6 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>-4.903894844940293</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.59654555455128</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1126,12 +1080,6 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>-3.357883741906274</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.27294841088441</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1140,12 +1088,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>-3.976874213567342</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.39598217124352</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1154,12 +1096,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.559257405099649</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16.89801792808694</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1168,12 +1104,6 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>-4.036530256754497</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.64005545956788</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1182,12 +1112,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>-3.692911233657004</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16.10293143117822</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1196,12 +1120,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.194415785419802</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.85798881373678</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1210,12 +1128,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.624498885689487</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.7796741177579</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1224,12 +1136,6 @@
       <c r="B15" t="n">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
-        <v>-4.098316537279386</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.86110052914108</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1238,12 +1144,6 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.763317489476607</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17.07684897020914</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1252,12 +1152,6 @@
       <c r="B17" t="n">
         <v>7</v>
       </c>
-      <c r="C17" t="n">
-        <v>-3.221282488303101</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.71167305199617</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1266,12 +1160,6 @@
       <c r="B18" t="n">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.539353609679557</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.32813633151301</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1280,12 +1168,6 @@
       <c r="B19" t="n">
         <v>7</v>
       </c>
-      <c r="C19" t="n">
-        <v>-3.159357182859559</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17.72027678363642</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1294,12 +1176,6 @@
       <c r="B20" t="n">
         <v>7</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.28669060972812</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.38404132718021</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1308,12 +1184,6 @@
       <c r="B21" t="n">
         <v>7</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.293798670683504</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17.75421391290822</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1322,12 +1192,6 @@
       <c r="B22" t="n">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>-2.686662643139896</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.95091029292302</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1336,12 +1200,6 @@
       <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
-        <v>-2.039875607320992</v>
-      </c>
-      <c r="D23" t="n">
-        <v>18.76918605479878</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1350,12 +1208,6 @@
       <c r="B24" t="n">
         <v>8</v>
       </c>
-      <c r="C24" t="n">
-        <v>-2.898621463837814</v>
-      </c>
-      <c r="D24" t="n">
-        <v>17.27429363571776</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1364,12 +1216,6 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.863358174360682</v>
-      </c>
-      <c r="D25" t="n">
-        <v>17.37140617087447</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1378,12 +1224,6 @@
       <c r="B26" t="n">
         <v>8</v>
       </c>
-      <c r="C26" t="n">
-        <v>-2.576727308458959</v>
-      </c>
-      <c r="D26" t="n">
-        <v>18.71645875668842</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1392,12 +1232,6 @@
       <c r="B27" t="n">
         <v>8</v>
       </c>
-      <c r="C27" t="n">
-        <v>-1.084883087493013</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18.54026266726752</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1406,12 +1240,6 @@
       <c r="B28" t="n">
         <v>8</v>
       </c>
-      <c r="C28" t="n">
-        <v>-1.651405981996901</v>
-      </c>
-      <c r="D28" t="n">
-        <v>18.52007159197403</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1420,12 +1248,6 @@
       <c r="B29" t="n">
         <v>8</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.090120890804041</v>
-      </c>
-      <c r="D29" t="n">
-        <v>18.66697548335438</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1434,12 +1256,6 @@
       <c r="B30" t="n">
         <v>9</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.979179598225042</v>
-      </c>
-      <c r="D30" t="n">
-        <v>19.14822372394305</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1448,12 +1264,6 @@
       <c r="B31" t="n">
         <v>9</v>
       </c>
-      <c r="C31" t="n">
-        <v>-1.247660177817743</v>
-      </c>
-      <c r="D31" t="n">
-        <v>19.757595733338</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1462,12 +1272,6 @@
       <c r="B32" t="n">
         <v>9</v>
       </c>
-      <c r="C32" t="n">
-        <v>-1.580503238458067</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.15023753235316</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1476,12 +1280,6 @@
       <c r="B33" t="n">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.9992963415726708</v>
-      </c>
-      <c r="D33" t="n">
-        <v>19.08106858459541</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1490,12 +1288,6 @@
       <c r="B34" t="n">
         <v>9</v>
       </c>
-      <c r="C34" t="n">
-        <v>-1.01719345886534</v>
-      </c>
-      <c r="D34" t="n">
-        <v>19.27404908634615</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1504,12 +1296,6 @@
       <c r="B35" t="n">
         <v>9</v>
       </c>
-      <c r="C35" t="n">
-        <v>-1.309435958693907</v>
-      </c>
-      <c r="D35" t="n">
-        <v>18.94090703440994</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1518,12 +1304,6 @@
       <c r="B36" t="n">
         <v>9</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.9458117349364114</v>
-      </c>
-      <c r="D36" t="n">
-        <v>19.47700476150857</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1532,12 +1312,6 @@
       <c r="B37" t="n">
         <v>9</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.9648584013440996</v>
-      </c>
-      <c r="D37" t="n">
-        <v>19.33864929338958</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1546,12 +1320,6 @@
       <c r="B38" t="n">
         <v>10</v>
       </c>
-      <c r="C38" t="n">
-        <v>-0.6321605870865095</v>
-      </c>
-      <c r="D38" t="n">
-        <v>20.45183958481082</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1560,12 +1328,6 @@
       <c r="B39" t="n">
         <v>10</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.3297609678833329</v>
-      </c>
-      <c r="D39" t="n">
-        <v>19.77650273126551</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1574,12 +1336,6 @@
       <c r="B40" t="n">
         <v>10</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.5491557088511065</v>
-      </c>
-      <c r="D40" t="n">
-        <v>21.07255583025981</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1588,12 +1344,6 @@
       <c r="B41" t="n">
         <v>10</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.003632676435414118</v>
-      </c>
-      <c r="D41" t="n">
-        <v>20.29823567740717</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1602,12 +1352,6 @@
       <c r="B42" t="n">
         <v>11</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.5835524577639108</v>
-      </c>
-      <c r="D42" t="n">
-        <v>20.55907180943974</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1616,12 +1360,6 @@
       <c r="B43" t="n">
         <v>11</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.46739764186216</v>
-      </c>
-      <c r="D43" t="n">
-        <v>20.81738649959892</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1630,12 +1368,6 @@
       <c r="B44" t="n">
         <v>11</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.170128947927731</v>
-      </c>
-      <c r="D44" t="n">
-        <v>21.54773443504615</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1644,12 +1376,6 @@
       <c r="B45" t="n">
         <v>12</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.076250096111836</v>
-      </c>
-      <c r="D45" t="n">
-        <v>21.95051653893422</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1658,12 +1384,6 @@
       <c r="B46" t="n">
         <v>12</v>
       </c>
-      <c r="C46" t="n">
-        <v>1.288531452773089</v>
-      </c>
-      <c r="D46" t="n">
-        <v>22.07379058670045</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1672,12 +1392,6 @@
       <c r="B47" t="n">
         <v>12</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.666091203594009</v>
-      </c>
-      <c r="D47" t="n">
-        <v>22.04745766614628</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1686,12 +1400,6 @@
       <c r="B48" t="n">
         <v>12</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.4503699522222</v>
-      </c>
-      <c r="D48" t="n">
-        <v>22.18253122312818</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1700,12 +1408,6 @@
       <c r="B49" t="n">
         <v>12</v>
       </c>
-      <c r="C49" t="n">
-        <v>2.168346953462976</v>
-      </c>
-      <c r="D49" t="n">
-        <v>22.2524599308795</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1714,12 +1416,6 @@
       <c r="B50" t="n">
         <v>12</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.674749018113665</v>
-      </c>
-      <c r="D50" t="n">
-        <v>22.38788321506934</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1728,12 +1424,6 @@
       <c r="B51" t="n">
         <v>12</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.158200682736066</v>
-      </c>
-      <c r="D51" t="n">
-        <v>22.07938721493936</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1742,12 +1432,6 @@
       <c r="B52" t="n">
         <v>13</v>
       </c>
-      <c r="C52" t="n">
-        <v>2.4919754457492</v>
-      </c>
-      <c r="D52" t="n">
-        <v>22.32218290896741</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1756,12 +1440,6 @@
       <c r="B53" t="n">
         <v>13</v>
       </c>
-      <c r="C53" t="n">
-        <v>2.452730950274982</v>
-      </c>
-      <c r="D53" t="n">
-        <v>22.99851638113197</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1770,12 +1448,6 @@
       <c r="B54" t="n">
         <v>13</v>
       </c>
-      <c r="C54" t="n">
-        <v>2.089262072741606</v>
-      </c>
-      <c r="D54" t="n">
-        <v>23.26851104951523</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1784,12 +1456,6 @@
       <c r="B55" t="n">
         <v>13</v>
       </c>
-      <c r="C55" t="n">
-        <v>2.781016295389608</v>
-      </c>
-      <c r="D55" t="n">
-        <v>22.46099540864799</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1797,12 +1463,6 @@
       </c>
       <c r="B56" t="n">
         <v>13</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.906844411850551</v>
-      </c>
-      <c r="D56" t="n">
-        <v>23.09464891554568</v>
       </c>
     </row>
   </sheetData>
